--- a/docs/shrcore/shr-core-Participation-extension.xlsx
+++ b/docs/shrcore/shr-core-Participation-extension.xlsx
@@ -194,7 +194,7 @@
 </t>
   </si>
   <si>
-    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity.</t>
+    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity. The participant is not necessarily the performer, and the role (ParticipationType), the ParticipationPeriod, and other details of the participation are by the Participation structure.</t>
   </si>
   <si>
     <t>participationtype</t>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
